--- a/worksheets/ws40/ws40.xlsx
+++ b/worksheets/ws40/ws40.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soularpower\Dropbox\CS 261\assignments\worksheets\ws40\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\CS 261\assignments\worksheets\ws40\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,16 +506,17 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="60" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -542,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -574,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -603,7 +604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -632,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -661,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -690,7 +691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -719,7 +720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -748,7 +749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -777,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -785,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -793,7 +794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -801,7 +802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -809,7 +810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -817,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -825,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -833,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
